--- a/scripts/obs_pkgstatus/obs_pkginfo.xlsx
+++ b/scripts/obs_pkgstatus/obs_pkginfo.xlsx
@@ -455,24 +455,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>23.02 status</t>
+          <t>standard_aarch64 status</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>23.03 status</t>
+          <t>standard_x86_64 status</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>aalib</t>
+          <t>A-Tune</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>openEuler-23.03</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -482,19 +482,19 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>blocked</t>
+          <t>succeeded</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>abrt</t>
+          <t>GeoIP</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>openEuler-23.03</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -504,19 +504,19 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>blocked</t>
+          <t>succeeded</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>acpid</t>
+          <t>Judy</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>openEuler-23.03</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -526,19 +526,19 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>blocked</t>
+          <t>succeeded</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>adcli</t>
+          <t>NetworkManager</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>openEuler-23.03</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -548,80 +548,80 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>blocked</t>
+          <t>succeeded</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ansible</t>
+          <t>PyPAM</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>openEuler-23.03</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>failed</t>
+          <t>succeeded</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>blocked</t>
+          <t>succeeded</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>bcc</t>
+          <t>SDL2</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>openEuler-23.03</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>failed</t>
+          <t>scheduled</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>blocked</t>
+          <t>scheduled</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>clutter</t>
+          <t>kae_driver</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>openEuler-23.03</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>succeeded</t>
+          <t>scheduled</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>blocked</t>
+          <t>excluded</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>jose</t>
+          <t>latrace</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -631,19 +631,19 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>broken</t>
+          <t>failed</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>broken</t>
+          <t>failed</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>patchinfo</t>
+          <t>libxsmm</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -653,34 +653,34 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>blocked</t>
+          <t>excluded</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>blocked</t>
+          <t>scheduled</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>python-docker</t>
+          <t>nodelet_core</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>openEuler-23.03</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>succeeded</t>
+          <t>building</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>blocked</t>
+          <t>building</t>
         </is>
       </c>
     </row>
